--- a/project_assignment/Data Anal Plan wkst.xlsx
+++ b/project_assignment/Data Anal Plan wkst.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_S22\project_assignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5774B84-4885-4786-A578-03FFF2B8AF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data Anal Plan wkst" sheetId="1" r:id="rId4"/>
+    <sheet name="Data Anal Plan wkst" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjfxayeTkvJYyZ9EXqoaO7V4CVtcQ=="/>
@@ -54,54 +63,58 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">  * descriptive or differences research question</t>
+    <t>** nominal, ordinal, interval, or ratio</t>
   </si>
   <si>
-    <t>** nominal, ordinal, interval, or ratio</t>
+    <t xml:space="preserve">  * descriptive, differences, or association research question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arimo"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Century"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arimo"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Century"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Century"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Century"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -111,11 +124,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -126,6 +145,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -134,14 +155,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -150,86 +177,84 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -419,34 +444,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.14"/>
-    <col customWidth="1" min="2" max="2" width="13.0"/>
-    <col customWidth="1" min="3" max="3" width="13.14"/>
-    <col customWidth="1" min="4" max="4" width="14.29"/>
-    <col customWidth="1" min="5" max="5" width="28.14"/>
-    <col customWidth="1" min="6" max="6" width="21.29"/>
-    <col customWidth="1" min="7" max="26" width="10.0"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:26" ht="25.5" customHeight="1">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="21.75" customHeight="1">
+    <row r="2" spans="1:26" ht="21.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -484,7 +511,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" ht="9.75" customHeight="1">
+    <row r="3" spans="1:26" ht="9.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -512,7 +539,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" ht="52.5" customHeight="1">
+    <row r="4" spans="1:26" ht="52.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -550,7 +577,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" ht="33.0" customHeight="1">
+    <row r="5" spans="1:26" ht="33" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -559,81 +586,81 @@
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" ht="33.0" customHeight="1">
+    <row r="6" spans="1:26" ht="33" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" ht="33.0" customHeight="1">
+    <row r="7" spans="1:26" ht="33" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" ht="33.0" customHeight="1">
+    <row r="8" spans="1:26" ht="33" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" ht="33.0" customHeight="1">
+    <row r="9" spans="1:26" ht="33" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" ht="33.0" customHeight="1">
+    <row r="10" spans="1:26" ht="33" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" ht="33.0" customHeight="1">
+    <row r="11" spans="1:26" ht="33" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" ht="33.0" customHeight="1">
+    <row r="12" spans="1:26" ht="33" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" ht="33.0" customHeight="1">
+    <row r="13" spans="1:26" ht="33" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" ht="9.0" customHeight="1">
+    <row r="14" spans="1:26" ht="9" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1"/>
@@ -1621,9 +1648,7 @@
     <row r="999" ht="25.5" customHeight="1"/>
     <row r="1000" ht="25.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>